--- a/ig/nr-prepare-release/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:11:24+00:00</t>
+    <t>2023-09-01T08:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « Comprehensive Folder  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « Comprehensive Folder » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -146,6 +146,10 @@
     <t>A list is a curated collection of resources.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+  </si>
+  <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
   </si>
   <si>
@@ -456,18 +460,18 @@
     <t>List.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-</t>
-  </si>
-  <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
@@ -476,11 +480,7 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
-  </si>
-  <si>
-    <t>Patient[classCode=PAT]</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>List.extension</t>
@@ -505,14 +505,10 @@
 </t>
   </si>
   <si>
-    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur.</t>
+    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur. Le jeu de valeurs est à définir par le système cible.</t>
   </si>
   <si>
     <t>Expresses contentType of submissionSet or the codeList of a Folder. Usually expressed in LOINC or SNOMED.</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs est à définir par le système cible.
-There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -918,9 +914,6 @@
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>List.entry.flag</t>
@@ -1355,7 +1348,7 @@
     <col min="1" max="1" width="29.6328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.2578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
@@ -1489,27 +1482,27 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1520,7 +1513,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1529,19 +1522,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1591,13 +1584,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1620,10 +1613,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1634,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1643,16 +1636,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1703,19 +1696,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1732,10 +1725,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1746,7 +1739,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1758,13 +1751,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1815,13 +1808,13 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -1830,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -1844,14 +1837,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1870,16 +1863,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1917,19 +1910,19 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -1941,10 +1934,10 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -1958,10 +1951,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1972,7 +1965,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1981,19 +1974,19 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2043,19 +2036,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2072,10 +2065,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2086,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2095,19 +2088,19 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2157,19 +2150,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2186,10 +2179,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2200,7 +2193,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2209,19 +2202,19 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2271,19 +2264,19 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2300,10 +2293,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2323,19 +2316,19 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2385,7 +2378,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2397,7 +2390,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2406,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2414,10 +2407,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2437,19 +2430,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2475,13 +2468,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -2499,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2511,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2528,10 +2521,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2551,19 +2544,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2589,13 +2582,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2613,7 +2606,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2625,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2642,10 +2635,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2656,28 +2649,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2727,19 +2720,19 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2756,10 +2749,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2770,7 +2763,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2782,16 +2775,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2817,13 +2810,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -2841,19 +2834,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2870,21 +2863,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2896,16 +2889,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2955,22 +2948,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2984,18 +2977,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -3010,16 +3003,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3069,7 +3062,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3081,7 +3074,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>147</v>
@@ -3109,7 +3102,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -3124,7 +3117,7 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>149</v>
@@ -3169,14 +3162,14 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>151</v>
@@ -3191,7 +3184,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3221,13 +3214,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>38</v>
@@ -3244,9 +3237,7 @@
       <c r="M17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3304,30 +3295,30 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3344,13 +3335,13 @@
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>149</v>
@@ -3407,7 +3398,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3419,7 +3410,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3436,10 +3427,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3462,13 +3453,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3507,17 +3498,17 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3529,16 +3520,16 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3546,13 +3537,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>38</v>
@@ -3562,10 +3553,10 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
@@ -3574,13 +3565,13 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3631,7 +3622,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3640,33 +3631,33 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>38</v>
@@ -3679,7 +3670,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
@@ -3688,13 +3679,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3745,7 +3736,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3754,13 +3745,13 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3774,10 +3765,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3785,31 +3776,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3835,63 +3826,63 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3899,34 +3890,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -3936,67 +3927,67 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4004,10 +3995,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4015,10 +4006,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4027,20 +4018,20 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4053,75 +4044,75 @@
         <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4129,10 +4120,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4141,22 +4132,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4166,7 +4157,7 @@
         <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>38</v>
@@ -4181,50 +4172,50 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
@@ -4232,10 +4223,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4243,34 +4234,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4319,39 +4310,39 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4374,13 +4365,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4431,28 +4422,28 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4460,10 +4451,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4471,34 +4462,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4547,43 +4538,43 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4599,22 +4590,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -4663,28 +4654,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4692,10 +4683,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4718,19 +4709,19 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -4755,52 +4746,52 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4808,10 +4799,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4822,7 +4813,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4834,13 +4825,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4891,7 +4882,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -4903,16 +4894,16 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -4920,10 +4911,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4931,7 +4922,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>37</v>
@@ -4946,16 +4937,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5005,7 +4996,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5014,13 +5005,13 @@
         <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5034,10 +5025,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5048,7 +5039,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5060,13 +5051,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5117,13 +5108,13 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
@@ -5132,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5146,14 +5137,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5172,16 +5163,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5231,7 +5222,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5243,10 +5234,10 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -5260,14 +5251,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5280,25 +5271,25 @@
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5347,7 +5338,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5359,10 +5350,10 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5376,10 +5367,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5402,19 +5393,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5439,13 +5430,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -5463,28 +5454,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5492,10 +5483,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5512,97 +5503,97 @@
         <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O37" t="s" s="2">
+      <c r="AI37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q37" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="R37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5610,10 +5601,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5636,17 +5627,17 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -5695,28 +5686,28 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5724,10 +5715,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5735,10 +5726,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5750,13 +5741,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5807,39 +5798,39 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5862,19 +5853,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -5899,52 +5890,52 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>

--- a/ig/nr-prepare-release/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:02:25+00:00</t>
+    <t>2023-10-11T07:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
